--- a/Worm_counter_output/worm_log.xlsx
+++ b/Worm_counter_output/worm_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,51 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>detected_IMG_1311_219.jpg</t>
+          <t>detected_detected_IMG_1339_99.jpg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>detected_image00041_244.jpg</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>detected_image00039_173.jpg</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>detected_image00038_151.jpg</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>detected_image00036_134.jpg</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Worm_counter_output/worm_log.xlsx
+++ b/Worm_counter_output/worm_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,26 @@
         <v>99</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>detected_detected_detected_IMG_1339_99_102.jpg</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>detected_detected_detected_detected_IMG_1339_99_102_93.jpg</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
